--- a/DB/Basicinfo/LegalPersons-2024-08-15.xlsx
+++ b/DB/Basicinfo/LegalPersons-2024-08-15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289E4E9-C617-41FE-BCFC-62AB3EA2A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D316BB-5D10-4FDF-AA93-C067A1FAC6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -154,12 +154,6 @@
     <t>أسماء عثمان عبد الحي عثمان</t>
   </si>
   <si>
-    <t>أسماء عثمان</t>
-  </si>
-  <si>
-    <t>ايمان ادريس</t>
-  </si>
-  <si>
     <t>أميرة الحاج</t>
   </si>
   <si>
@@ -283,15 +277,9 @@
     <t>رزان أحمد عبد الله</t>
   </si>
   <si>
-    <t>رزان أحمد</t>
-  </si>
-  <si>
     <t>سعاد عبدالحليم مصطفي</t>
   </si>
   <si>
-    <t>سعاد عبدالحليم</t>
-  </si>
-  <si>
     <t>حاضنة البركة للإنتاج الزراعي والحيواني</t>
   </si>
   <si>
@@ -299,6 +287,39 @@
   </si>
   <si>
     <t>غادة حسن مرتضى حسن</t>
+  </si>
+  <si>
+    <t>تقوى</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>سعاد</t>
+  </si>
+  <si>
+    <t>يسرا</t>
+  </si>
+  <si>
+    <t>خديجة</t>
+  </si>
+  <si>
+    <t>إيمان</t>
+  </si>
+  <si>
+    <t>نفحات</t>
+  </si>
+  <si>
+    <t>أميرة</t>
+  </si>
+  <si>
+    <t>إيمان ادريس</t>
+  </si>
+  <si>
+    <t>رشا</t>
+  </si>
+  <si>
+    <t>د. رزان</t>
   </si>
 </sst>
 </file>
@@ -382,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +710,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -854,7 +875,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1007,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1041,7 +1062,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1055,10 +1076,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1072,10 +1093,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1089,10 +1110,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1106,10 +1127,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1123,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1140,10 +1161,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1157,10 +1178,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1174,10 +1195,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1191,10 +1212,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1208,10 +1229,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1225,10 +1246,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1242,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1259,10 +1280,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1276,10 +1297,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1293,10 +1314,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1310,10 +1331,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1327,10 +1348,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1344,10 +1365,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1361,10 +1382,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1378,10 +1399,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1395,10 +1416,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1412,10 +1433,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -1429,10 +1450,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -1446,10 +1467,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1463,10 +1484,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1480,10 +1501,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -1497,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1514,10 +1535,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1531,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -1548,7 +1569,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
@@ -1565,10 +1586,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -1582,10 +1603,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -1599,10 +1620,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -1616,10 +1637,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1633,10 +1654,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -1667,10 +1688,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -1701,10 +1722,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -1718,10 +1739,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -1769,7 +1790,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
